--- a/3_output/sensitivity_hwws/cont/metareg_hwws_cont_visnum.xlsx
+++ b/3_output/sensitivity_hwws/cont/metareg_hwws_cont_visnum.xlsx
@@ -915,26 +915,26 @@
     </row>
     <row r="2">
       <c r="B2">
-        <v>57.914185610694013</v>
+        <v>65.058394825967341</v>
       </c>
       <c r="D2">
-        <v>90.296981709256642</v>
+        <v>77.585151559972516</v>
       </c>
     </row>
     <row r="3">
       <c r="B3">
-        <v>0.0021846561243024998</v>
+        <v>0.0040900402237112003</v>
       </c>
       <c r="D3">
-        <v>0.31502202035431792</v>
+        <v>0.10025577083088701</v>
       </c>
     </row>
     <row r="4">
       <c r="B4">
-        <v>73.765024139619001</v>
+        <v>78.238519169724668</v>
       </c>
       <c r="D4">
-        <v>90.835919259031499</v>
+        <v>79.487992516267411</v>
       </c>
     </row>
     <row r="6">
@@ -942,19 +942,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>-0.0062290314861344048</v>
+        <v>-0.0068603305546689059</v>
       </c>
       <c r="D6" s="3">
-        <v>0.032398284330278762</v>
+        <v>0.058098925784164118</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="29">
-        <v>-0.0025574828398022662</v>
+        <v>-0.00344291666970588</v>
       </c>
       <c r="J6" s="30">
-        <v>-0.21066344764756873</v>
+        <v>-0.14356584529631916</v>
       </c>
     </row>
     <row r="7">
@@ -962,19 +962,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>0.0020330343397464176</v>
+        <v>0.002389416200023981</v>
       </c>
       <c r="D7" s="6">
-        <v>0.063282200465294008</v>
+        <v>0.081774961443937907</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="32">
-        <v>0.0025454173421682546</v>
+        <v>0.0020947222098189446</v>
       </c>
       <c r="J7" s="33">
-        <v>0.11116958457066847</v>
+        <v>0.098427183381472425</v>
       </c>
     </row>
     <row r="8">
@@ -982,19 +982,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="8">
-        <v>-3.0639086435260894</v>
+        <v>-2.8711325195669359</v>
       </c>
       <c r="D8" s="9">
-        <v>0.51196519861927081</v>
+        <v>0.71047328862386239</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="35">
-        <v>-1.0047400862067413</v>
+        <v>-1.6436149163680589</v>
       </c>
       <c r="J8" s="36">
-        <v>-1.8949737777751057</v>
+        <v>-1.4585995490687127</v>
       </c>
     </row>
     <row r="9">
@@ -1002,19 +1002,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="11">
-        <v>0.0021846561243024512</v>
+        <v>0.0040900402237112454</v>
       </c>
       <c r="D9" s="12">
-        <v>0.60867536616072426</v>
+        <v>0.47741068948681314</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="38">
-        <v>0.31502202035431787</v>
+        <v>0.10025577083088699</v>
       </c>
       <c r="J9" s="39">
-        <v>0.058095875745842775</v>
+        <v>0.14467535779944884</v>
       </c>
     </row>
     <row r="10">
@@ -1022,19 +1022,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="14">
-        <v>-0.010213705571370552</v>
+        <v>-0.011543500250792461</v>
       </c>
       <c r="D10" s="15">
-        <v>-0.091632549444141329</v>
+        <v>-0.10217705348310568</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="41">
-        <v>-0.0075464091560757118</v>
+        <v>-0.0075484967585671657</v>
       </c>
       <c r="J10" s="42">
-        <v>-0.4285518295823586</v>
+        <v>-0.33647957982372445</v>
       </c>
     </row>
     <row r="11">
@@ -1042,19 +1042,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="17">
-        <v>-0.0022443574008982588</v>
+        <v>-0.0021771608585453494</v>
       </c>
       <c r="D11" s="18">
-        <v>0.15642911810469884</v>
+        <v>0.21837490505143392</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="44">
-        <v>0.0024314434764711799</v>
+        <v>0.00066266341915540567</v>
       </c>
       <c r="J11" s="45">
-        <v>0.007224934287221152</v>
+        <v>0.049347889231086101</v>
       </c>
     </row>
     <row r="12">
